--- a/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._libaom.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._libaom.xlsx
@@ -192,6 +192,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -206,32 +232,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -371,6 +371,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -385,32 +411,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -550,6 +550,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -564,32 +590,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -729,6 +729,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -743,32 +769,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -908,6 +908,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -922,32 +948,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1087,6 +1087,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="19"/>
         </scaling>
         <axPos val="l"/>
@@ -1101,32 +1127,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1266,6 +1266,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -1280,32 +1306,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1445,6 +1445,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -1459,32 +1485,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1624,6 +1624,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -1638,32 +1664,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1803,6 +1803,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="18"/>
         </scaling>
         <axPos val="l"/>
@@ -1817,32 +1843,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1982,6 +1982,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="19"/>
         </scaling>
         <axPos val="l"/>
@@ -1996,32 +2022,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2161,6 +2161,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -2175,32 +2201,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2340,6 +2340,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -2354,32 +2380,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2519,6 +2519,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -2533,32 +2559,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2698,6 +2698,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -2712,32 +2738,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2877,6 +2877,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -2891,32 +2917,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3056,6 +3056,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -3070,32 +3096,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3235,6 +3235,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="14"/>
         </scaling>
         <axPos val="l"/>
@@ -3249,32 +3275,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3414,6 +3414,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -3428,32 +3454,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3593,6 +3593,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -3607,32 +3633,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3772,6 +3772,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -3786,32 +3812,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3951,6 +3951,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="18"/>
         </scaling>
         <axPos val="l"/>
@@ -3965,32 +3991,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4130,6 +4130,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -4144,32 +4170,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4309,6 +4309,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -4323,32 +4349,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4488,6 +4488,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="18"/>
         </scaling>
         <axPos val="l"/>
@@ -4502,32 +4528,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4667,6 +4667,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -4681,32 +4707,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>﻿Average</t>
+          <t>﻿Average:</t>
         </is>
       </c>
       <c r="C28" t="n">
